--- a/data/134/DEUSTATIS/Foreign trade - countries.xlsx
+++ b/data/134/DEUSTATIS/Foreign trade - countries.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="49">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 countries</t>
@@ -151,13 +151,16 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:10:11</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:46:52</t>
   </si>
 </sst>
 </file>
@@ -8968,10 +8971,10 @@
         <v>11</v>
       </c>
       <c r="D539" t="n" s="10">
-        <v>428831.0</v>
+        <v>428858.0</v>
       </c>
       <c r="E539" t="n" s="10">
-        <v>51513.0</v>
+        <v>51517.0</v>
       </c>
     </row>
     <row r="540">
@@ -8999,10 +9002,10 @@
         <v>11</v>
       </c>
       <c r="D541" t="n" s="10">
-        <v>385501.0</v>
+        <v>401135.0</v>
       </c>
       <c r="E541" t="n" s="10">
-        <v>55188.0</v>
+        <v>55195.0</v>
       </c>
     </row>
     <row r="542">
@@ -9030,10 +9033,10 @@
         <v>11</v>
       </c>
       <c r="D543" t="n" s="10">
-        <v>599813.0</v>
+        <v>585559.0</v>
       </c>
       <c r="E543" t="n" s="10">
-        <v>72996.0</v>
+        <v>73626.0</v>
       </c>
     </row>
     <row r="544">
@@ -9061,10 +9064,10 @@
         <v>11</v>
       </c>
       <c r="D545" t="n" s="10">
-        <v>493210.0</v>
+        <v>488056.0</v>
       </c>
       <c r="E545" t="n" s="10">
-        <v>69800.0</v>
+        <v>70043.0</v>
       </c>
     </row>
     <row r="546">
@@ -9078,10 +9081,10 @@
         <v>11</v>
       </c>
       <c r="D546" t="n" s="10">
-        <v>714593.0</v>
+        <v>717887.0</v>
       </c>
       <c r="E546" t="n" s="10">
-        <v>105658.0</v>
+        <v>105509.0</v>
       </c>
     </row>
     <row r="547">
@@ -9092,10 +9095,10 @@
         <v>11</v>
       </c>
       <c r="D547" t="n" s="10">
-        <v>620385.0</v>
+        <v>621632.0</v>
       </c>
       <c r="E547" t="n" s="10">
-        <v>64160.0</v>
+        <v>59678.0</v>
       </c>
     </row>
     <row r="548">
@@ -9109,10 +9112,10 @@
         <v>11</v>
       </c>
       <c r="D548" t="n" s="10">
-        <v>784077.0</v>
+        <v>784916.0</v>
       </c>
       <c r="E548" t="n" s="10">
-        <v>157417.0</v>
+        <v>157100.0</v>
       </c>
     </row>
     <row r="549">
@@ -9123,10 +9126,10 @@
         <v>11</v>
       </c>
       <c r="D549" t="n" s="10">
-        <v>529579.0</v>
+        <v>532097.0</v>
       </c>
       <c r="E549" t="n" s="10">
-        <v>63313.0</v>
+        <v>64010.0</v>
       </c>
     </row>
     <row r="550">
@@ -9140,10 +9143,10 @@
         <v>11</v>
       </c>
       <c r="D550" t="n" s="10">
-        <v>914877.0</v>
+        <v>912944.0</v>
       </c>
       <c r="E550" t="n" s="10">
-        <v>136086.0</v>
+        <v>136053.0</v>
       </c>
     </row>
     <row r="551">
@@ -9154,10 +9157,10 @@
         <v>11</v>
       </c>
       <c r="D551" t="n" s="10">
-        <v>474281.0</v>
+        <v>477842.0</v>
       </c>
       <c r="E551" t="n" s="10">
-        <v>51701.0</v>
+        <v>51926.0</v>
       </c>
     </row>
     <row r="552">
@@ -9170,11 +9173,11 @@
       <c r="C552" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D552" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E552" t="s" s="10">
-        <v>45</v>
+      <c r="D552" t="n" s="10">
+        <v>929104.0</v>
+      </c>
+      <c r="E552" t="n" s="10">
+        <v>158920.0</v>
       </c>
     </row>
     <row r="553">
@@ -9184,11 +9187,11 @@
       <c r="C553" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D553" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E553" t="s" s="10">
-        <v>45</v>
+      <c r="D553" t="n" s="10">
+        <v>483051.0</v>
+      </c>
+      <c r="E553" t="n" s="10">
+        <v>47511.0</v>
       </c>
     </row>
     <row r="554">
@@ -9201,11 +9204,11 @@
       <c r="C554" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D554" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E554" t="s" s="10">
-        <v>45</v>
+      <c r="D554" t="n" s="10">
+        <v>862754.0</v>
+      </c>
+      <c r="E554" t="n" s="10">
+        <v>159439.0</v>
       </c>
     </row>
     <row r="555">
@@ -9215,21 +9218,398 @@
       <c r="C555" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D555" t="s" s="10">
+      <c r="D555" t="n" s="10">
+        <v>644843.0</v>
+      </c>
+      <c r="E555" t="n" s="10">
+        <v>46479.0</v>
+      </c>
+    </row>
+    <row r="556" ht="50.6" customHeight="true">
+      <c r="A556" t="s" s="14">
         <v>45</v>
       </c>
-      <c r="E555" t="s" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="s" s="11">
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="B557" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C557" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D557" t="n" s="10">
+        <v>821564.0</v>
+      </c>
+      <c r="E557" t="n" s="10">
+        <v>117656.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="B558" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C558" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D558" t="n" s="10">
+        <v>454064.0</v>
+      </c>
+      <c r="E558" t="n" s="10">
+        <v>39451.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B559" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C559" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D559" t="s" s="10">
         <v>46</v>
       </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="s" s="12">
+      <c r="E559" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="B560" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C560" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D560" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E560" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="B561" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C561" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D561" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E561" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="B562" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C562" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D562" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E562" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="B563" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C563" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D563" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E563" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="B564" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C564" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D564" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E564" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B565" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C565" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D565" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E565" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="B566" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C566" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D566" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E566" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="B567" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C567" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D567" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E567" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="B568" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C568" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D568" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E568" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="B569" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C569" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D569" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E569" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="B570" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C570" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D570" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E570" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="B571" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C571" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D571" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E571" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="B572" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C572" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D572" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E572" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="B573" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C573" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D573" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E573" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="B574" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C574" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D574" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E574" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="B575" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C575" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D575" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E575" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="B576" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C576" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D576" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E576" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="B577" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C577" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D577" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E577" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="B578" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C578" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D578" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E578" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="9">
+        <v>23</v>
+      </c>
+      <c r="B579" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C579" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D579" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E579" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="B580" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C580" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D580" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="E580" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="11">
         <v>47</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="12">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -9261,11 +9641,12 @@
     <mergeCell ref="A481:E481"/>
     <mergeCell ref="A506:E506"/>
     <mergeCell ref="A531:E531"/>
+    <mergeCell ref="A556:E556"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:10:18&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:46:59&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>